--- a/xlsx/sc_Config.xlsx
+++ b/xlsx/sc_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF1E2B7-DCB4-485D-A039-B18D964782ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C05E646-2D5F-4AB3-9388-490E0AAE05DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5835" yWindow="570" windowWidth="21615" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>ID</t>
   </si>
@@ -37,6 +37,157 @@
   </si>
   <si>
     <t>毒圈缩小速度</t>
+  </si>
+  <si>
+    <t>PoisonRingRadiusMin</t>
+  </si>
+  <si>
+    <t>毒圈的最小半径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PoisonRingRadiusMax</t>
+  </si>
+  <si>
+    <t>毒圈的最大半径</t>
+  </si>
+  <si>
+    <t>PoisonRingDmg</t>
+  </si>
+  <si>
+    <t>毒圈伤害量</t>
+  </si>
+  <si>
+    <t>PoisonRingDmgCoolTime</t>
+  </si>
+  <si>
+    <t>毒圈伤害间隙</t>
+  </si>
+  <si>
+    <t>鱼可游动范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BgBound</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AquaticHeal</t>
+  </si>
+  <si>
+    <t>水草恢复量</t>
+  </si>
+  <si>
+    <t>AquaticHealCoolTime</t>
+  </si>
+  <si>
+    <t>水草恢复血间隙</t>
+  </si>
+  <si>
+    <t>PlayerSizeUpRate</t>
+  </si>
+  <si>
+    <t>吃一条鱼变大倍率</t>
+  </si>
+  <si>
+    <t>FishMaxScale</t>
+  </si>
+  <si>
+    <t>鱼最大体积倍率</t>
+  </si>
+  <si>
+    <t>HealLifeFromEatRate</t>
+  </si>
+  <si>
+    <t>吃一条鱼可恢复对方体力上线的比例</t>
+  </si>
+  <si>
+    <t>EatFishTime</t>
+  </si>
+  <si>
+    <t>鱼被吃掉的时候缩小的时间</t>
+  </si>
+  <si>
+    <t>AttackHardTime</t>
+  </si>
+  <si>
+    <t>攻击鱼之后的硬直时间</t>
+  </si>
+  <si>
+    <t>RobotVisionX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人视野（矩形宽度）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人视野（矩形长度）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RobotVisionY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RobotVisionRange</t>
+  </si>
+  <si>
+    <t>机器人视野半径平方（圆型）</t>
+  </si>
+  <si>
+    <t>EnemyResurrectionRemainingTime</t>
+  </si>
+  <si>
+    <t>杂鱼死亡后的复活间隙</t>
+  </si>
+  <si>
+    <t>AquaticRange</t>
+  </si>
+  <si>
+    <t>水草的范围</t>
+  </si>
+  <si>
+    <t>CanStealthTimeFromDmg</t>
+  </si>
+  <si>
+    <t>受伤之后多久不能隐身&amp;恢复生命</t>
+  </si>
+  <si>
+    <t>EatPearlRange</t>
+  </si>
+  <si>
+    <t>吃珍珠的判定半径</t>
+  </si>
+  <si>
+    <t>OpenShellRemainingTime</t>
+  </si>
+  <si>
+    <t>打开贝壳的时间间隔</t>
+  </si>
+  <si>
+    <t>ShellOpenningTime</t>
+  </si>
+  <si>
+    <t>贝壳开着的时间</t>
+  </si>
+  <si>
+    <t>PearlRecoverLife</t>
+  </si>
+  <si>
+    <t>珍珠恢复血量</t>
+  </si>
+  <si>
+    <t>ShellCloseDmg</t>
+  </si>
+  <si>
+    <t>贝壳关闭伤害</t>
+  </si>
+  <si>
+    <t>ShellPearlResetRate</t>
+  </si>
+  <si>
+    <t>贝壳重置珍珠概率</t>
   </si>
 </sst>
 </file>
@@ -1265,17 +1416,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
     <col min="5" max="16384" width="8.875" style="1"/>
   </cols>
@@ -1304,6 +1455,342 @@
       </c>
       <c r="D2" s="5">
         <v>0.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="5">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/sc_Config.xlsx
+++ b/xlsx/sc_Config.xlsx
@@ -1,225 +1,219 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C05E646-2D5F-4AB3-9388-490E0AAE05DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="5835" yWindow="570" windowWidth="21615" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
   <si>
     <t>key</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>floatValue</t>
+  </si>
+  <si>
+    <t>intValue</t>
+  </si>
+  <si>
+    <t>stringValue</t>
+  </si>
+  <si>
+    <t>毒圈缩小速度</t>
   </si>
   <si>
     <t>PoisonRingScaleSpeed</t>
   </si>
   <si>
-    <t>value</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒圈缩小速度</t>
+    <t>毒圈的最小半径</t>
   </si>
   <si>
     <t>PoisonRingRadiusMin</t>
   </si>
   <si>
-    <t>毒圈的最小半径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>毒圈的最大半径</t>
   </si>
   <si>
     <t>PoisonRingRadiusMax</t>
   </si>
   <si>
-    <t>毒圈的最大半径</t>
+    <t>毒圈伤害量</t>
   </si>
   <si>
     <t>PoisonRingDmg</t>
   </si>
   <si>
-    <t>毒圈伤害量</t>
+    <t>毒圈伤害间隙</t>
   </si>
   <si>
     <t>PoisonRingDmgCoolTime</t>
   </si>
   <si>
-    <t>毒圈伤害间隙</t>
-  </si>
-  <si>
     <t>鱼可游动范围</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>BgBound</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水草恢复量</t>
   </si>
   <si>
     <t>AquaticHeal</t>
   </si>
   <si>
-    <t>水草恢复量</t>
+    <t>水草恢复血间隙</t>
   </si>
   <si>
     <t>AquaticHealCoolTime</t>
   </si>
   <si>
-    <t>水草恢复血间隙</t>
+    <t>吃一条鱼变大倍率</t>
   </si>
   <si>
     <t>PlayerSizeUpRate</t>
   </si>
   <si>
-    <t>吃一条鱼变大倍率</t>
+    <t>鱼最大体积倍率</t>
   </si>
   <si>
     <t>FishMaxScale</t>
   </si>
   <si>
-    <t>鱼最大体积倍率</t>
+    <t>吃一条鱼可恢复对方体力上线的比例</t>
   </si>
   <si>
     <t>HealLifeFromEatRate</t>
   </si>
   <si>
-    <t>吃一条鱼可恢复对方体力上线的比例</t>
+    <t>鱼被吃掉的时候缩小的时间</t>
   </si>
   <si>
     <t>EatFishTime</t>
   </si>
   <si>
-    <t>鱼被吃掉的时候缩小的时间</t>
+    <t>攻击鱼之后的硬直时间</t>
   </si>
   <si>
     <t>AttackHardTime</t>
   </si>
   <si>
-    <t>攻击鱼之后的硬直时间</t>
+    <t>机器人视野（矩形宽度）</t>
   </si>
   <si>
     <t>RobotVisionX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器人视野（矩形宽度）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>机器人视野（矩形长度）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>RobotVisionY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人视野半径平方（圆型）</t>
   </si>
   <si>
     <t>RobotVisionRange</t>
   </si>
   <si>
-    <t>机器人视野半径平方（圆型）</t>
+    <t>杂鱼死亡后的复活间隙</t>
   </si>
   <si>
     <t>EnemyResurrectionRemainingTime</t>
   </si>
   <si>
-    <t>杂鱼死亡后的复活间隙</t>
+    <t>水草的范围</t>
   </si>
   <si>
     <t>AquaticRange</t>
   </si>
   <si>
-    <t>水草的范围</t>
+    <t>受伤之后多久不能隐身&amp;恢复生命</t>
   </si>
   <si>
     <t>CanStealthTimeFromDmg</t>
   </si>
   <si>
-    <t>受伤之后多久不能隐身&amp;恢复生命</t>
+    <t>吃珍珠的判定半径</t>
   </si>
   <si>
     <t>EatPearlRange</t>
   </si>
   <si>
-    <t>吃珍珠的判定半径</t>
+    <t>打开贝壳的时间间隔</t>
   </si>
   <si>
     <t>OpenShellRemainingTime</t>
   </si>
   <si>
-    <t>打开贝壳的时间间隔</t>
+    <t>贝壳开着的时间</t>
   </si>
   <si>
     <t>ShellOpenningTime</t>
   </si>
   <si>
-    <t>贝壳开着的时间</t>
+    <t>珍珠恢复血量</t>
   </si>
   <si>
     <t>PearlRecoverLife</t>
   </si>
   <si>
-    <t>珍珠恢复血量</t>
+    <t>贝壳关闭伤害</t>
   </si>
   <si>
     <t>ShellCloseDmg</t>
   </si>
   <si>
-    <t>贝壳关闭伤害</t>
+    <t>贝壳重置珍珠概率</t>
   </si>
   <si>
     <t>ShellPearlResetRate</t>
-  </si>
-  <si>
-    <t>贝壳重置珍珠概率</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color indexed="8"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -232,117 +226,67 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -534,17 +478,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -563,19 +507,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -593,7 +537,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -619,7 +563,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -645,7 +589,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -671,7 +615,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -697,7 +641,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -723,7 +667,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -749,7 +693,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -775,7 +719,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -801,7 +745,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -814,32 +758,26 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -858,7 +796,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -884,7 +822,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -910,7 +848,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -936,7 +874,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -962,7 +900,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -988,7 +926,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1014,7 +952,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1040,7 +978,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1066,7 +1004,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1092,7 +1030,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1105,15 +1043,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1127,7 +1059,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1146,19 +1078,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1176,7 +1108,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1202,7 +1134,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1228,7 +1160,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1254,7 +1186,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1280,7 +1212,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1306,7 +1238,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1332,7 +1264,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1358,7 +1290,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1384,7 +1316,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1397,406 +1329,453 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D26"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.8516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.8516" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="1"/>
+    <col min="5" max="6" width="8.85156" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="15.95" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F1" t="s" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="15.95" customHeight="1">
       <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="B2" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" ht="15.95" customHeight="1">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3">
         <v>5</v>
       </c>
-      <c r="D3" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" ht="15.95" customHeight="1">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="B4" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3">
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="B6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="B7" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3">
         <v>85</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="B8" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="B9" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="B10" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="D10" s="3">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="B11" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="B12" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="D12" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="5">
+      <c r="B13" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="D13" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="B14" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="5">
+      <c r="B15" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D15" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="5">
+      <c r="B16" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="D16" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="5">
+      <c r="B17" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D17" s="3">
         <v>557</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="B18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D18" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="B19" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D19" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="5">
+      <c r="B20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D20" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="5">
+      <c r="B21" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D21" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="5">
+      <c r="B22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D22" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="5">
+      <c r="B23" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="D23" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="5">
+      <c r="B24" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="D24" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="5">
+      <c r="B25" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="D25" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="5">
+      <c r="B26" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="D26" s="3">
         <v>0.2</v>
       </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/xlsx/sc_Config.xlsx
+++ b/xlsx/sc_Config.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDF094B-12F6-454B-B3BA-47F85D26C4AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="5025" yWindow="1845" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -181,25 +190,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="等线"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -241,52 +243,101 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -488,7 +539,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -507,7 +558,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -537,7 +588,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -563,7 +614,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -589,7 +640,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -615,7 +666,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -641,7 +692,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -667,7 +718,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -693,7 +744,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -719,7 +770,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -745,7 +796,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -758,9 +809,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -777,7 +834,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -796,7 +853,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -822,7 +879,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -848,7 +905,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -874,7 +931,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -900,7 +957,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -926,7 +983,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -952,7 +1009,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -978,7 +1035,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1004,7 +1061,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1030,7 +1087,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1043,9 +1100,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1059,7 +1122,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1078,7 +1141,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1108,7 +1171,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1134,7 +1197,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1160,7 +1223,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1186,7 +1249,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1212,7 +1275,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1238,7 +1301,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1264,7 +1327,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1290,7 +1353,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1316,7 +1379,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1329,58 +1392,67 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.8516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.8516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="6" width="8.85156" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="5" max="7" width="8.875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.95" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.95" customHeight="1">
+    <row r="2" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="3">
@@ -1389,14 +1461,14 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" ht="15.95" customHeight="1">
+    <row r="3" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3">
@@ -1405,14 +1477,14 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" ht="15.95" customHeight="1">
+    <row r="4" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="3">
@@ -1421,14 +1493,14 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="3">
@@ -1437,14 +1509,14 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s" s="2">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="3">
@@ -1453,14 +1525,14 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="3">
@@ -1469,14 +1541,14 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s" s="2">
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="3">
@@ -1485,14 +1557,14 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s" s="2">
+      <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="3">
@@ -1501,14 +1573,14 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s" s="2">
+      <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="3">
@@ -1517,14 +1589,14 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="3">
@@ -1533,14 +1605,14 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="3">
@@ -1549,14 +1621,14 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="3">
@@ -1565,14 +1637,14 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="3">
@@ -1581,14 +1653,14 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="3">
@@ -1597,14 +1669,14 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="3">
@@ -1613,30 +1685,30 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="3">
-        <v>557</v>
+        <v>750</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="3">
@@ -1645,14 +1717,14 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="3">
@@ -1661,14 +1733,14 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D20" s="3">
@@ -1677,14 +1749,14 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C21" t="s" s="2">
+      <c r="C21" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="3">
@@ -1693,14 +1765,14 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="B22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="3">
@@ -1709,14 +1781,14 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" t="s" s="2">
+      <c r="B23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D23" s="3">
@@ -1725,14 +1797,14 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C24" t="s" s="2">
+      <c r="C24" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D24" s="3">
@@ -1741,14 +1813,14 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="B25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C25" t="s" s="2">
+      <c r="C25" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D25" s="3">
@@ -1757,14 +1829,14 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" t="s" s="2">
+      <c r="B26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D26" s="3">
@@ -1774,8 +1846,9 @@
       <c r="F26" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/xlsx/sc_Config.xlsx
+++ b/xlsx/sc_Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDF094B-12F6-454B-B3BA-47F85D26C4AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CDB030-53E7-4CA1-B0F1-B35149810675}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="1845" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4365" yWindow="2715" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -185,6 +185,14 @@
   </si>
   <si>
     <t>ShellPearlResetRate</t>
+  </si>
+  <si>
+    <t>看广告后战斗结算奖励倍数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleRewardGoldAdvertRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -218,7 +226,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -241,16 +249,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1411,10 +1453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1830,20 +1872,204 @@
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="A26" s="5">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="5">
         <v>0.2</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8">
+        <v>1000</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="8">
+        <v>2</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/xlsx/sc_Config.xlsx
+++ b/xlsx/sc_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CDB030-53E7-4CA1-B0F1-B35149810675}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DF613B-5E84-4B83-9410-1558323F5FDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4365" yWindow="2715" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -187,11 +187,19 @@
     <t>ShellPearlResetRate</t>
   </si>
   <si>
-    <t>看广告后战斗结算奖励倍数</t>
+    <t>BattleRewardGoldAdvertRate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BattleRewardGoldAdvertRate</t>
+    <t>战斗结算奖励金币系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleRewardGoldRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看广告后战斗结算奖励金币倍数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -199,7 +207,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -208,6 +216,13 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -291,8 +306,8 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1456,7 +1471,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1891,185 +1906,193 @@
       <c r="A27" s="8">
         <v>1000</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="8">
+        <v>10</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="8">
+        <v>1001</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="8">
+      <c r="D28" s="8">
         <v>2</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/xlsx/sc_Config.xlsx
+++ b/xlsx/sc_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DF613B-5E84-4B83-9410-1558323F5FDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF00848D-00E5-4D46-9157-5FD3379F341A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4365" yWindow="2715" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1471,7 +1471,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/xlsx/sc_Config.xlsx
+++ b/xlsx/sc_Config.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF00848D-00E5-4D46-9157-5FD3379F341A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="4365" yWindow="2715" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
   <si>
     <t>ID</t>
   </si>
@@ -187,44 +178,57 @@
     <t>ShellPearlResetRate</t>
   </si>
   <si>
+    <t>战斗结算奖励金币系数</t>
+  </si>
+  <si>
+    <t>BattleRewardGoldRate</t>
+  </si>
+  <si>
+    <t>看广告后战斗结算奖励金币倍数</t>
+  </si>
+  <si>
     <t>BattleRewardGoldAdvertRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗结算奖励金币系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BattleRewardGoldRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看广告后战斗结算奖励金币倍数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始出战鱼id</t>
+  </si>
+  <si>
+    <t>InitialFishId</t>
+  </si>
+  <si>
+    <t>鱼等级上限</t>
+  </si>
+  <si>
+    <t>FishLevelMax</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="等线"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <color indexed="11"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -241,7 +245,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -266,21 +270,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="10"/>
       </left>
       <right style="thin">
@@ -289,112 +278,142 @@
       <top style="thin">
         <color indexed="10"/>
       </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -596,7 +615,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -615,7 +634,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -645,7 +664,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -671,7 +690,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -697,7 +716,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -723,7 +742,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -749,7 +768,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -775,7 +794,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -801,7 +820,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -827,7 +846,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -853,7 +872,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -866,15 +885,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -891,7 +904,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -910,7 +923,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -936,7 +949,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -962,7 +975,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -988,7 +1001,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1014,7 +1027,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1040,7 +1053,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1066,7 +1079,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1092,7 +1105,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1118,7 +1131,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1144,7 +1157,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1157,15 +1170,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1179,7 +1186,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1198,7 +1205,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1228,7 +1235,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1254,7 +1261,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1280,7 +1287,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1306,7 +1313,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1332,7 +1339,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1358,7 +1365,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1384,7 +1391,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1410,7 +1417,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1436,7 +1443,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1449,67 +1456,58 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.8516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.8516" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="7" width="8.875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="1"/>
+    <col min="5" max="6" width="8.85156" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="15.95" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="15.95" customHeight="1">
       <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s" s="2">
         <v>6</v>
       </c>
       <c r="D2" s="3">
@@ -1518,14 +1516,14 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="15.95" customHeight="1">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s" s="2">
         <v>8</v>
       </c>
       <c r="D3" s="3">
@@ -1534,14 +1532,14 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="15.95" customHeight="1">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s" s="2">
         <v>10</v>
       </c>
       <c r="D4" s="3">
@@ -1550,14 +1548,14 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s" s="2">
         <v>12</v>
       </c>
       <c r="D5" s="3">
@@ -1566,14 +1564,14 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s" s="2">
         <v>14</v>
       </c>
       <c r="D6" s="3">
@@ -1582,14 +1580,14 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s" s="2">
         <v>16</v>
       </c>
       <c r="D7" s="3">
@@ -1598,14 +1596,14 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s" s="2">
         <v>18</v>
       </c>
       <c r="D8" s="3">
@@ -1614,14 +1612,14 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="D9" s="3">
@@ -1630,14 +1628,14 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s" s="2">
         <v>22</v>
       </c>
       <c r="D10" s="3">
@@ -1646,14 +1644,14 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s" s="2">
         <v>24</v>
       </c>
       <c r="D11" s="3">
@@ -1662,14 +1660,14 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s" s="2">
         <v>26</v>
       </c>
       <c r="D12" s="3">
@@ -1678,14 +1676,14 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s" s="2">
         <v>28</v>
       </c>
       <c r="D13" s="3">
@@ -1694,14 +1692,14 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s" s="2">
         <v>30</v>
       </c>
       <c r="D14" s="3">
@@ -1710,14 +1708,14 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D15" s="3">
@@ -1726,14 +1724,14 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s" s="2">
         <v>34</v>
       </c>
       <c r="D16" s="3">
@@ -1742,14 +1740,14 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D17" s="3">
@@ -1758,14 +1756,14 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D18" s="3">
@@ -1774,14 +1772,14 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D19" s="3">
@@ -1790,14 +1788,14 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D20" s="3">
@@ -1806,14 +1804,14 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D21" s="3">
@@ -1822,14 +1820,14 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s" s="2">
         <v>46</v>
       </c>
       <c r="D22" s="3">
@@ -1838,14 +1836,14 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" t="s" s="2">
         <v>48</v>
       </c>
       <c r="D23" s="3">
@@ -1854,14 +1852,14 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" t="s" s="2">
         <v>50</v>
       </c>
       <c r="D24" s="3">
@@ -1870,14 +1868,14 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" t="s" s="2">
         <v>52</v>
       </c>
       <c r="D25" s="3">
@@ -1886,14 +1884,14 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="5">
         <v>24</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" t="s" s="6">
         <v>53</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" t="s" s="6">
         <v>54</v>
       </c>
       <c r="D26" s="5">
@@ -1902,202 +1900,217 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="8">
         <v>1000</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" t="s" s="9">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s" s="9">
         <v>56</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="8">
+      <c r="D27" s="10"/>
+      <c r="E27" s="8">
         <v>10</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="8">
         <v>1001</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" t="s" s="9">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s" s="9">
         <v>58</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="8">
+      <c r="D28" s="12"/>
+      <c r="E28" s="8">
         <v>2</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-    </row>
-    <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-    </row>
-    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-    </row>
-    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-    </row>
-    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-    </row>
-    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-    </row>
-    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-    </row>
-    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-    </row>
-    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-    </row>
-    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-    </row>
-    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-    </row>
-    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-    </row>
-    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-    </row>
-    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-    </row>
-    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-    </row>
-    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-    </row>
-    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-    </row>
-    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-    </row>
-    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-    </row>
-    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" ht="14.25" customHeight="1">
+      <c r="A29" s="8">
+        <v>1002</v>
+      </c>
+      <c r="B29" t="s" s="9">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s" s="13">
+        <v>60</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="8">
+        <v>1</v>
+      </c>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" ht="14.25" customHeight="1">
+      <c r="A30" s="8">
+        <v>1003</v>
+      </c>
+      <c r="B30" t="s" s="9">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s" s="9">
+        <v>62</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="8">
+        <v>10</v>
+      </c>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" ht="14.25" customHeight="1">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" ht="14.25" customHeight="1">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+    </row>
+    <row r="33" ht="14.25" customHeight="1">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+    </row>
+    <row r="34" ht="14.25" customHeight="1">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+    </row>
+    <row r="35" ht="14.25" customHeight="1">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+    </row>
+    <row r="36" ht="14.25" customHeight="1">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" ht="14.25" customHeight="1">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" ht="14.25" customHeight="1">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" ht="14.25" customHeight="1">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+    </row>
+    <row r="40" ht="14.25" customHeight="1">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+    </row>
+    <row r="41" ht="14.25" customHeight="1">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+    </row>
+    <row r="42" ht="14.25" customHeight="1">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+    </row>
+    <row r="43" ht="14.25" customHeight="1">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+    </row>
+    <row r="44" ht="14.25" customHeight="1">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+    </row>
+    <row r="45" ht="14.25" customHeight="1">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+    </row>
+    <row r="46" ht="14.25" customHeight="1">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+    </row>
+    <row r="47" ht="14.25" customHeight="1">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+    </row>
+    <row r="48" ht="14.25" customHeight="1">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/xlsx/sc_Config.xlsx
+++ b/xlsx/sc_Config.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
   <si>
     <t>ID</t>
   </si>
@@ -200,6 +200,24 @@
   </si>
   <si>
     <t>FishLevelMax</t>
+  </si>
+  <si>
+    <t>初始头像id</t>
+  </si>
+  <si>
+    <t>InitialHeadId</t>
+  </si>
+  <si>
+    <t>初始金币</t>
+  </si>
+  <si>
+    <t>InitialGold</t>
+  </si>
+  <si>
+    <t>初始钻石</t>
+  </si>
+  <si>
+    <t>InitialDiamond</t>
   </si>
 </sst>
 </file>
@@ -1965,27 +1983,51 @@
       <c r="F30" s="11"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
+      <c r="A31" s="8">
+        <v>1004</v>
+      </c>
+      <c r="B31" t="s" s="9">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s" s="13">
+        <v>64</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="8">
+        <v>1</v>
+      </c>
       <c r="F31" s="11"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
+      <c r="A32" s="8">
+        <v>1005</v>
+      </c>
+      <c r="B32" t="s" s="9">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s" s="13">
+        <v>66</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="8">
+        <v>10</v>
+      </c>
       <c r="F32" s="11"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
+      <c r="A33" s="8">
+        <v>1006</v>
+      </c>
+      <c r="B33" t="s" s="9">
+        <v>67</v>
+      </c>
+      <c r="C33" t="s" s="13">
+        <v>68</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="8">
+        <v>10</v>
+      </c>
       <c r="F33" s="11"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">

--- a/xlsx/sc_Config.xlsx
+++ b/xlsx/sc_Config.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BF4CA7-AD93-4B44-B0EB-BA080D3986D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="28890" yWindow="2925" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>ID</t>
   </si>
@@ -218,35 +227,68 @@
   </si>
   <si>
     <t>InitialDiamond</t>
+  </si>
+  <si>
+    <t>鱼最大攻击力（鱼属性界面）</t>
+  </si>
+  <si>
+    <t>FishAtkMax</t>
+  </si>
+  <si>
+    <t>鱼最大体力（鱼属性界面）</t>
+  </si>
+  <si>
+    <t>FishHpMax</t>
+  </si>
+  <si>
+    <t>鱼最大速度（鱼属性界面）</t>
+  </si>
+  <si>
+    <t>FishSpdMax</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="等线"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -263,42 +305,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -318,120 +330,265 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color rgb="FFAAAAAA"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color rgb="FFAAAAAA"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color rgb="FFAAAAAA"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFAAAAAA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color rgb="FFAAAAAA"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff333333"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -633,7 +790,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -652,7 +809,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -682,7 +839,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -708,7 +865,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -734,7 +891,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -760,7 +917,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -786,7 +943,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -812,7 +969,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -838,7 +995,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -864,7 +1021,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -890,7 +1047,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -903,9 +1060,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -922,7 +1085,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -941,7 +1104,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -967,7 +1130,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -993,7 +1156,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1019,7 +1182,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1045,7 +1208,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1071,7 +1234,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1097,7 +1260,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1123,7 +1286,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1149,7 +1312,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1175,7 +1338,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1188,9 +1351,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1204,7 +1373,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1223,7 +1392,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1253,7 +1422,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1279,7 +1448,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1305,7 +1474,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1331,7 +1500,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1357,7 +1526,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1383,7 +1552,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1409,7 +1578,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1435,7 +1604,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1461,7 +1630,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1474,685 +1643,719 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.8516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.8516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="6" width="8.85156" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="5" max="7" width="8.875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.95" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" t="s" s="2">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.95" customHeight="1">
-      <c r="A2" s="3">
+    <row r="2" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A2" s="5">
         <v>0</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s" s="2">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="7">
         <v>0.6</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" ht="15.95" customHeight="1">
-      <c r="A3" s="3">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="7">
         <v>5</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" ht="15.95" customHeight="1">
-      <c r="A4" s="3">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="7">
         <v>120</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="3">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="7">
         <v>10</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="3">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s" s="2">
+      <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="7">
         <v>1</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="3">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="7">
         <v>85</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="3">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s" s="2">
+      <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="7">
         <v>10</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="3">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s" s="2">
+      <c r="C9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="7">
         <v>1</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="3">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s" s="2">
+      <c r="C10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="7">
         <v>0.3</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="3">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="7">
         <v>3</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="3">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="7">
         <v>1</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="3">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="7">
         <v>0.2</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="3">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="7">
         <v>0.35</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="3">
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="7">
         <v>20</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="3">
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="7">
         <v>10</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="3">
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="7">
         <v>750</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="3">
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="7">
         <v>3</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="3">
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="7">
         <v>2</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="3">
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="7">
         <v>2</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="3">
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C21" t="s" s="2">
+      <c r="C21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="7">
         <v>3</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="3">
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="B22" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="7">
         <v>5</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="3">
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B23" t="s" s="2">
+      <c r="B23" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="7">
         <v>2</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="3">
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A24" s="5">
         <v>22</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C24" t="s" s="2">
+      <c r="C24" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="7">
         <v>100</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="3">
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="B25" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C25" t="s" s="2">
+      <c r="C25" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="7">
         <v>100</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="5">
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A26" s="9">
         <v>24</v>
       </c>
-      <c r="B26" t="s" s="6">
+      <c r="B26" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C26" t="s" s="6">
+      <c r="C26" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="11">
         <v>0.2</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="8">
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A27" s="13">
         <v>1000</v>
       </c>
-      <c r="B27" t="s" s="9">
+      <c r="B27" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C27" t="s" s="9">
+      <c r="C27" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="8">
+      <c r="D27" s="15"/>
+      <c r="E27" s="16">
         <v>10</v>
       </c>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="8">
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A28" s="13">
         <v>1001</v>
       </c>
-      <c r="B28" t="s" s="9">
+      <c r="B28" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C28" t="s" s="9">
+      <c r="C28" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="8">
+      <c r="D28" s="15"/>
+      <c r="E28" s="16">
         <v>2</v>
       </c>
-      <c r="F28" s="11"/>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="8">
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A29" s="13">
         <v>1002</v>
       </c>
-      <c r="B29" t="s" s="9">
+      <c r="B29" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C29" t="s" s="13">
+      <c r="C29" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="8">
+      <c r="D29" s="15"/>
+      <c r="E29" s="16">
         <v>1</v>
       </c>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="8">
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A30" s="13">
         <v>1003</v>
       </c>
-      <c r="B30" t="s" s="9">
+      <c r="B30" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C30" t="s" s="9">
+      <c r="C30" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="8">
+      <c r="D30" s="17"/>
+      <c r="E30" s="16">
         <v>10</v>
       </c>
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="8">
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A31" s="13">
         <v>1004</v>
       </c>
-      <c r="B31" t="s" s="9">
+      <c r="B31" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C31" t="s" s="13">
+      <c r="C31" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="8">
+      <c r="D31" s="15"/>
+      <c r="E31" s="16">
         <v>1</v>
       </c>
-      <c r="F31" s="11"/>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="8">
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A32" s="13">
         <v>1005</v>
       </c>
-      <c r="B32" t="s" s="9">
+      <c r="B32" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C32" t="s" s="13">
+      <c r="C32" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="8">
+      <c r="D32" s="15"/>
+      <c r="E32" s="16">
         <v>10</v>
       </c>
-      <c r="F32" s="11"/>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="8">
+      <c r="F32" s="17"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A33" s="13">
         <v>1006</v>
       </c>
-      <c r="B33" t="s" s="9">
+      <c r="B33" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C33" t="s" s="13">
+      <c r="C33" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="8">
+      <c r="D33" s="17"/>
+      <c r="E33" s="16">
         <v>10</v>
       </c>
-      <c r="F33" s="11"/>
-    </row>
-    <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-    </row>
-    <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-    </row>
-    <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-    </row>
-    <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-    </row>
-    <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-    </row>
-    <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-    </row>
-    <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-    </row>
-    <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-    </row>
-    <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-    </row>
-    <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-    </row>
-    <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-    </row>
-    <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-    </row>
-    <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-    </row>
-    <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-    </row>
-    <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
+      <c r="F33" s="17"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A34" s="19">
+        <v>2000</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="21"/>
+      <c r="E34" s="19">
+        <v>100</v>
+      </c>
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A35" s="19">
+        <v>2001</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="21"/>
+      <c r="E35" s="19">
+        <v>500</v>
+      </c>
+      <c r="F35" s="21"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A36" s="19">
+        <v>2002</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="19">
+        <v>1</v>
+      </c>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/xlsx/sc_Config.xlsx
+++ b/xlsx/sc_Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BF4CA7-AD93-4B44-B0EB-BA080D3986D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B4E34C-FAE4-4CA6-BE78-66F5DA161313}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28890" yWindow="2925" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>ID</t>
   </si>
@@ -245,6 +245,12 @@
   </si>
   <si>
     <t>FishSpdMax</t>
+  </si>
+  <si>
+    <t>鱼升级成长系数</t>
+  </si>
+  <si>
+    <t>FishLevelUpRate</t>
   </si>
 </sst>
 </file>
@@ -305,7 +311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -437,11 +443,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -493,13 +525,25 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1664,8 +1708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1"/>
@@ -2193,148 +2237,156 @@
       <c r="F32" s="17"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A33" s="13">
+      <c r="A33" s="19">
         <v>1006</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="16">
+      <c r="D33" s="15"/>
+      <c r="E33" s="22">
         <v>10</v>
       </c>
-      <c r="F33" s="17"/>
+      <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A34" s="19">
+      <c r="A34" s="23">
         <v>2000</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="19">
+      <c r="D34" s="25"/>
+      <c r="E34" s="23">
         <v>100</v>
       </c>
-      <c r="F34" s="21"/>
+      <c r="F34" s="25"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A35" s="19">
+      <c r="A35" s="23">
         <v>2001</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="19">
+      <c r="D35" s="25"/>
+      <c r="E35" s="23">
         <v>500</v>
       </c>
-      <c r="F35" s="21"/>
+      <c r="F35" s="25"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A36" s="19">
+      <c r="A36" s="23">
         <v>2002</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="23">
         <v>1</v>
       </c>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="A37" s="23">
+        <v>2010</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" customHeight="1">
       <c r="A47" s="2"/>

--- a/xlsx/sc_Config.xlsx
+++ b/xlsx/sc_Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B4E34C-FAE4-4CA6-BE78-66F5DA161313}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565ACAB2-6466-40A6-8CF7-3CE55E2998A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="780" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29730" yWindow="1845" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>ID</t>
   </si>
@@ -88,169 +88,180 @@
     <t>吃一条鱼变大倍率</t>
   </si>
   <si>
+    <t>鱼最大体积倍率</t>
+  </si>
+  <si>
+    <t>FishMaxScale</t>
+  </si>
+  <si>
+    <t>吃一条鱼可恢复对方体力上线的比例</t>
+  </si>
+  <si>
+    <t>HealLifeFromEatRate</t>
+  </si>
+  <si>
+    <t>鱼被吃掉的时候缩小的时间</t>
+  </si>
+  <si>
+    <t>EatFishTime</t>
+  </si>
+  <si>
+    <t>攻击鱼之后的硬直时间</t>
+  </si>
+  <si>
+    <t>AttackHardTime</t>
+  </si>
+  <si>
+    <t>机器人视野（矩形宽度）</t>
+  </si>
+  <si>
+    <t>RobotVisionX</t>
+  </si>
+  <si>
+    <t>机器人视野（矩形长度）</t>
+  </si>
+  <si>
+    <t>RobotVisionY</t>
+  </si>
+  <si>
+    <t>机器人视野半径平方（圆型）</t>
+  </si>
+  <si>
+    <t>RobotVisionRange</t>
+  </si>
+  <si>
+    <t>杂鱼死亡后的复活间隙</t>
+  </si>
+  <si>
+    <t>EnemyResurrectionRemainingTime</t>
+  </si>
+  <si>
+    <t>水草的范围</t>
+  </si>
+  <si>
+    <t>AquaticRange</t>
+  </si>
+  <si>
+    <t>受伤之后多久不能隐身&amp;恢复生命</t>
+  </si>
+  <si>
+    <t>CanStealthTimeFromDmg</t>
+  </si>
+  <si>
+    <t>吃珍珠的判定半径</t>
+  </si>
+  <si>
+    <t>EatPearlRange</t>
+  </si>
+  <si>
+    <t>打开贝壳的时间间隔</t>
+  </si>
+  <si>
+    <t>OpenShellRemainingTime</t>
+  </si>
+  <si>
+    <t>贝壳开着的时间</t>
+  </si>
+  <si>
+    <t>ShellOpenningTime</t>
+  </si>
+  <si>
+    <t>贝壳关闭伤害</t>
+  </si>
+  <si>
+    <t>ShellCloseDmg</t>
+  </si>
+  <si>
+    <t>贝壳重置珍珠概率</t>
+  </si>
+  <si>
+    <t>ShellPearlResetRate</t>
+  </si>
+  <si>
+    <t>战斗结算奖励金币系数</t>
+  </si>
+  <si>
+    <t>BattleRewardGoldRate</t>
+  </si>
+  <si>
+    <t>看广告后战斗结算奖励金币倍数</t>
+  </si>
+  <si>
+    <t>BattleRewardGoldAdvertRate</t>
+  </si>
+  <si>
+    <t>初始出战鱼id</t>
+  </si>
+  <si>
+    <t>InitialFishId</t>
+  </si>
+  <si>
+    <t>鱼等级上限</t>
+  </si>
+  <si>
+    <t>FishLevelMax</t>
+  </si>
+  <si>
+    <t>初始头像id</t>
+  </si>
+  <si>
+    <t>InitialHeadId</t>
+  </si>
+  <si>
+    <t>初始金币</t>
+  </si>
+  <si>
+    <t>InitialGold</t>
+  </si>
+  <si>
+    <t>初始钻石</t>
+  </si>
+  <si>
+    <t>InitialDiamond</t>
+  </si>
+  <si>
+    <t>鱼最大攻击力（鱼属性界面）</t>
+  </si>
+  <si>
+    <t>FishAtkMax</t>
+  </si>
+  <si>
+    <t>鱼最大体力（鱼属性界面）</t>
+  </si>
+  <si>
+    <t>FishHpMax</t>
+  </si>
+  <si>
+    <t>鱼最大速度（鱼属性界面）</t>
+  </si>
+  <si>
+    <t>FishSpdMax</t>
+  </si>
+  <si>
+    <t>鱼升级成长系数</t>
+  </si>
+  <si>
+    <t>FishLevelUpRate</t>
+  </si>
+  <si>
+    <t>吃一条鱼提升等级值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerLevelUpRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>PlayerSizeUpRate</t>
-  </si>
-  <si>
-    <t>鱼最大体积倍率</t>
-  </si>
-  <si>
-    <t>FishMaxScale</t>
-  </si>
-  <si>
-    <t>吃一条鱼可恢复对方体力上线的比例</t>
-  </si>
-  <si>
-    <t>HealLifeFromEatRate</t>
-  </si>
-  <si>
-    <t>鱼被吃掉的时候缩小的时间</t>
-  </si>
-  <si>
-    <t>EatFishTime</t>
-  </si>
-  <si>
-    <t>攻击鱼之后的硬直时间</t>
-  </si>
-  <si>
-    <t>AttackHardTime</t>
-  </si>
-  <si>
-    <t>机器人视野（矩形宽度）</t>
-  </si>
-  <si>
-    <t>RobotVisionX</t>
-  </si>
-  <si>
-    <t>机器人视野（矩形长度）</t>
-  </si>
-  <si>
-    <t>RobotVisionY</t>
-  </si>
-  <si>
-    <t>机器人视野半径平方（圆型）</t>
-  </si>
-  <si>
-    <t>RobotVisionRange</t>
-  </si>
-  <si>
-    <t>杂鱼死亡后的复活间隙</t>
-  </si>
-  <si>
-    <t>EnemyResurrectionRemainingTime</t>
-  </si>
-  <si>
-    <t>水草的范围</t>
-  </si>
-  <si>
-    <t>AquaticRange</t>
-  </si>
-  <si>
-    <t>受伤之后多久不能隐身&amp;恢复生命</t>
-  </si>
-  <si>
-    <t>CanStealthTimeFromDmg</t>
-  </si>
-  <si>
-    <t>吃珍珠的判定半径</t>
-  </si>
-  <si>
-    <t>EatPearlRange</t>
-  </si>
-  <si>
-    <t>打开贝壳的时间间隔</t>
-  </si>
-  <si>
-    <t>OpenShellRemainingTime</t>
-  </si>
-  <si>
-    <t>贝壳开着的时间</t>
-  </si>
-  <si>
-    <t>ShellOpenningTime</t>
-  </si>
-  <si>
-    <t>珍珠恢复血量</t>
-  </si>
-  <si>
-    <t>PearlRecoverLife</t>
-  </si>
-  <si>
-    <t>贝壳关闭伤害</t>
-  </si>
-  <si>
-    <t>ShellCloseDmg</t>
-  </si>
-  <si>
-    <t>贝壳重置珍珠概率</t>
-  </si>
-  <si>
-    <t>ShellPearlResetRate</t>
-  </si>
-  <si>
-    <t>战斗结算奖励金币系数</t>
-  </si>
-  <si>
-    <t>BattleRewardGoldRate</t>
-  </si>
-  <si>
-    <t>看广告后战斗结算奖励金币倍数</t>
-  </si>
-  <si>
-    <t>BattleRewardGoldAdvertRate</t>
-  </si>
-  <si>
-    <t>初始出战鱼id</t>
-  </si>
-  <si>
-    <t>InitialFishId</t>
-  </si>
-  <si>
-    <t>鱼等级上限</t>
-  </si>
-  <si>
-    <t>FishLevelMax</t>
-  </si>
-  <si>
-    <t>初始头像id</t>
-  </si>
-  <si>
-    <t>InitialHeadId</t>
-  </si>
-  <si>
-    <t>初始金币</t>
-  </si>
-  <si>
-    <t>InitialGold</t>
-  </si>
-  <si>
-    <t>初始钻石</t>
-  </si>
-  <si>
-    <t>InitialDiamond</t>
-  </si>
-  <si>
-    <t>鱼最大攻击力（鱼属性界面）</t>
-  </si>
-  <si>
-    <t>FishAtkMax</t>
-  </si>
-  <si>
-    <t>鱼最大体力（鱼属性界面）</t>
-  </si>
-  <si>
-    <t>FishHpMax</t>
-  </si>
-  <si>
-    <t>鱼最大速度（鱼属性界面）</t>
-  </si>
-  <si>
-    <t>FishSpdMax</t>
-  </si>
-  <si>
-    <t>鱼升级成长系数</t>
-  </si>
-  <si>
-    <t>FishLevelUpRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珍珠增加等级值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PearlRecoverLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -311,7 +322,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -383,19 +394,6 @@
       <top/>
       <bottom style="thin">
         <color rgb="FFAAAAAA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFAAAAAA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFAAAAAA"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -495,55 +493,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1706,10 +1701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1"/>
@@ -1831,7 +1826,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="7">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -1847,7 +1842,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="7">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -1863,7 +1858,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -1873,13 +1868,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="D10" s="7">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -1889,13 +1884,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="D11" s="7">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -1905,13 +1900,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D12" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -1921,13 +1916,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -1937,13 +1932,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D14" s="7">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -1953,13 +1948,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D15" s="7">
-        <v>20</v>
+        <v>0.35</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -1969,13 +1964,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D16" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -1985,13 +1980,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D17" s="7">
-        <v>750</v>
+        <v>10</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -2001,13 +1996,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D18" s="7">
-        <v>3</v>
+        <v>550</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -2017,13 +2012,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D19" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -2033,10 +2028,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D20" s="7">
         <v>2</v>
@@ -2049,13 +2044,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D21" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -2065,13 +2060,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D22" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
@@ -2081,13 +2076,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D23" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -2097,13 +2092,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D24" s="7">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -2113,288 +2108,296 @@
         <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="D25" s="7">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A26" s="9">
+      <c r="A26" s="5">
         <v>24</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="7">
+        <v>100</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A27" s="5">
+        <v>25</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A28" s="12">
+        <v>1000</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="D28" s="14"/>
+      <c r="E28" s="15">
+        <v>10</v>
+      </c>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A29" s="12">
+        <v>1001</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A27" s="13">
-        <v>1000</v>
-      </c>
-      <c r="B27" s="14" t="s">
+      <c r="C29" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="D29" s="14"/>
+      <c r="E29" s="15">
+        <v>2</v>
+      </c>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A30" s="12">
+        <v>1002</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="16">
+      <c r="C30" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15">
+        <v>1</v>
+      </c>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A31" s="12">
+        <v>1003</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="16"/>
+      <c r="E31" s="15">
         <v>10</v>
       </c>
-      <c r="F27" s="17"/>
-    </row>
-    <row r="28" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A28" s="13">
-        <v>1001</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="16">
-        <v>2</v>
-      </c>
-      <c r="F28" s="17"/>
-    </row>
-    <row r="29" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A29" s="13">
-        <v>1002</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="18" t="s">
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A32" s="12">
+        <v>1004</v>
+      </c>
+      <c r="B32" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="16">
+      <c r="C32" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15">
         <v>1</v>
       </c>
-      <c r="F29" s="17"/>
-    </row>
-    <row r="30" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A30" s="13">
-        <v>1003</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="14" t="s">
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A33" s="12">
+        <v>1005</v>
+      </c>
+      <c r="B33" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="16">
+      <c r="C33" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15">
         <v>10</v>
       </c>
-      <c r="F30" s="17"/>
-    </row>
-    <row r="31" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A31" s="13">
-        <v>1004</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="18" t="s">
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A34" s="18">
+        <v>1006</v>
+      </c>
+      <c r="B34" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="16">
+      <c r="C34" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="21">
+        <v>10</v>
+      </c>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A35" s="22">
+        <v>2000</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="24"/>
+      <c r="E35" s="22">
+        <v>100</v>
+      </c>
+      <c r="F35" s="24"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A36" s="22">
+        <v>2001</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="24"/>
+      <c r="E36" s="22">
+        <v>500</v>
+      </c>
+      <c r="F36" s="24"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A37" s="22">
+        <v>2002</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="22">
         <v>1</v>
       </c>
-      <c r="F31" s="17"/>
-    </row>
-    <row r="32" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A32" s="13">
-        <v>1005</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="16">
-        <v>10</v>
-      </c>
-      <c r="F32" s="17"/>
-    </row>
-    <row r="33" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A33" s="19">
-        <v>1006</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="22">
-        <v>10</v>
-      </c>
-      <c r="F33" s="15"/>
-    </row>
-    <row r="34" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A34" s="23">
-        <v>2000</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="23">
-        <v>100</v>
-      </c>
-      <c r="F34" s="25"/>
-    </row>
-    <row r="35" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A35" s="23">
-        <v>2001</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="24" t="s">
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A38" s="22">
+        <v>2010</v>
+      </c>
+      <c r="B38" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="23">
-        <v>500</v>
-      </c>
-      <c r="F35" s="25"/>
-    </row>
-    <row r="36" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A36" s="23">
-        <v>2002</v>
-      </c>
-      <c r="B36" s="24" t="s">
+      <c r="C38" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="23">
-        <v>1</v>
-      </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-    </row>
-    <row r="37" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A37" s="23">
-        <v>2010</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="23">
+      <c r="D38" s="22">
         <v>0.1</v>
       </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-    </row>
-    <row r="38" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A46" s="25"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" customHeight="1">
       <c r="A48" s="2"/>
@@ -2403,6 +2406,14 @@
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/xlsx/sc_Config.xlsx
+++ b/xlsx/sc_Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565ACAB2-6466-40A6-8CF7-3CE55E2998A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA7E78F-CD13-4D16-9A98-35965F5A0737}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29730" yWindow="1845" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3945" yWindow="990" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1704,7 +1704,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1"/>
@@ -2034,7 +2034,7 @@
         <v>39</v>
       </c>
       <c r="D20" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>

--- a/xlsx/sc_Config.xlsx
+++ b/xlsx/sc_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA7E78F-CD13-4D16-9A98-35965F5A0737}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65CADC1-ACE8-44A4-A2A1-A1262A7767B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3945" yWindow="990" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>ID</t>
   </si>
@@ -106,12 +106,6 @@
     <t>EatFishTime</t>
   </si>
   <si>
-    <t>攻击鱼之后的硬直时间</t>
-  </si>
-  <si>
-    <t>AttackHardTime</t>
-  </si>
-  <si>
     <t>机器人视野（矩形宽度）</t>
   </si>
   <si>
@@ -137,9 +131,6 @@
   </si>
   <si>
     <t>水草的范围</t>
-  </si>
-  <si>
-    <t>AquaticRange</t>
   </si>
   <si>
     <t>受伤之后多久不能隐身&amp;恢复生命</t>
@@ -261,6 +252,10 @@
   </si>
   <si>
     <t>PearlRecoverLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AquaticRange</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1701,10 +1696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1"/>
@@ -1868,10 +1863,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D10" s="7">
         <v>0.1</v>
@@ -1887,7 +1882,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D11" s="7">
         <v>0.3</v>
@@ -1945,7 +1940,7 @@
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1">
       <c r="A15" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>28</v>
@@ -1954,14 +1949,14 @@
         <v>29</v>
       </c>
       <c r="D15" s="7">
-        <v>0.35</v>
+        <v>20</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" customHeight="1">
       <c r="A16" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>30</v>
@@ -1970,14 +1965,14 @@
         <v>31</v>
       </c>
       <c r="D16" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1">
       <c r="A17" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>32</v>
@@ -1986,14 +1981,14 @@
         <v>33</v>
       </c>
       <c r="D17" s="7">
-        <v>10</v>
+        <v>550</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" ht="14.25" customHeight="1">
       <c r="A18" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>34</v>
@@ -2002,328 +1997,320 @@
         <v>35</v>
       </c>
       <c r="D18" s="7">
-        <v>550</v>
+        <v>3</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" ht="14.25" customHeight="1">
       <c r="A19" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="D19" s="7">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" ht="14.25" customHeight="1">
       <c r="A20" s="5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="D20" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1">
       <c r="A21" s="5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="D21" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6" ht="14.25" customHeight="1">
       <c r="A22" s="5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="D22" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6" ht="14.25" customHeight="1">
       <c r="A23" s="5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="D23" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1">
       <c r="A24" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="D24" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="14.25" customHeight="1">
       <c r="A25" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="D25" s="7">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6" ht="14.25" customHeight="1">
       <c r="A26" s="5">
-        <v>24</v>
-      </c>
-      <c r="B26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A27" s="12">
+        <v>1000</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="7">
-        <v>100</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A27" s="5">
-        <v>25</v>
-      </c>
-      <c r="B27" s="9" t="s">
+      <c r="C27" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15">
+        <v>10</v>
+      </c>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:6" ht="14.25" customHeight="1">
       <c r="A28" s="12">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B28" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>53</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="15">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6" ht="14.25" customHeight="1">
       <c r="A29" s="12">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B29" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>54</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:6" ht="14.25" customHeight="1">
       <c r="A30" s="12">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B30" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="14"/>
+      <c r="D30" s="16"/>
       <c r="E30" s="15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1">
       <c r="A31" s="12">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B31" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="16"/>
+      <c r="D31" s="14"/>
       <c r="E31" s="15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1">
       <c r="A32" s="12">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B32" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>60</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>61</v>
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F32" s="16"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A33" s="12">
-        <v>1005</v>
-      </c>
-      <c r="B33" s="13" t="s">
+      <c r="A33" s="18">
+        <v>1006</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="D33" s="14"/>
+      <c r="E33" s="21">
+        <v>10</v>
+      </c>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A34" s="22">
+        <v>2000</v>
+      </c>
+      <c r="B34" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="15">
-        <v>10</v>
-      </c>
-      <c r="F33" s="16"/>
-    </row>
-    <row r="34" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A34" s="18">
-        <v>1006</v>
-      </c>
-      <c r="B34" s="19" t="s">
+      <c r="C34" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="21">
-        <v>10</v>
-      </c>
-      <c r="F34" s="14"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="22">
+        <v>100</v>
+      </c>
+      <c r="F34" s="24"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1">
       <c r="A35" s="22">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B35" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="23" t="s">
         <v>66</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>67</v>
       </c>
       <c r="D35" s="24"/>
       <c r="E35" s="22">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F35" s="24"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1">
       <c r="A36" s="22">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B36" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="22">
-        <v>500</v>
-      </c>
+      <c r="D36" s="22">
+        <v>1</v>
+      </c>
+      <c r="E36" s="24"/>
       <c r="F36" s="24"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1">
       <c r="A37" s="22">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="B37" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="23" t="s">
-        <v>71</v>
-      </c>
       <c r="D37" s="22">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A38" s="22">
-        <v>2010</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" s="22">
-        <v>0.1</v>
-      </c>
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
     </row>
@@ -2392,12 +2379,12 @@
       <c r="F46" s="24"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A47" s="24"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" customHeight="1">
       <c r="A48" s="2"/>
@@ -2406,14 +2393,6 @@
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/xlsx/sc_Config.xlsx
+++ b/xlsx/sc_Config.xlsx
@@ -463,11 +463,11 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Microsoft YaHei"/>
+        <rFont val="Arial"/>
         <sz val="10.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">year</t>
+      <t xml:space="preserve">month</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -477,7 +477,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
   <numFmts/>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -583,6 +583,12 @@
     </font>
     <font>
       <name val="Microsoft YaHei"/>
+      <family val="0"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <name val="Arial"/>
       <family val="0"/>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -745,7 +751,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -875,6 +881,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="true" applyFont="false" applyBorder="true" applyAlignment="true">
       <alignment horizontal="general" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="true" applyFont="false" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="general" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -893,7 +902,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:ns10="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:ns13="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:ns20="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:ns22="urn:schemas-microsoft-com:office:powerpoint" xmlns:ns24="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:ns34="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:ns35="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:ns10="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:ns13="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:ns20="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:ns22="urn:schemas-microsoft-com:office:powerpoint" xmlns:ns24="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:ns34="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:ns35="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -942,7 +951,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:ns10="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:ns13="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:ns20="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:ns22="urn:schemas-microsoft-com:office:powerpoint" xmlns:ns24="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:ns34="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:ns35="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office 主题">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:ns10="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:ns13="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:ns20="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:ns22="urn:schemas-microsoft-com:office:powerpoint" xmlns:ns24="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:ns34="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:ns35="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2684,7 +2693,7 @@
       <c r="E40" s="40" t="n">
         <v>-1.0</v>
       </c>
-      <c r="F40" s="41" t="s">
+      <c r="F40" s="43" t="s">
         <v>85</v>
       </c>
       <c r="G40" s="25"/>

--- a/xlsx/sc_Config.xlsx
+++ b/xlsx/sc_Config.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr/>
   <bookViews>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="86" uniqueCount="86">
   <si>
     <t xml:space="preserve">ID</t>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
@@ -467,7 +467,7 @@
         <sz val="10.0"/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve">month</t>
+      <t xml:space="preserve">none</t>
     </r>
     <phoneticPr fontId="1" type="noConversion" alignment="left"/>
   </si>
@@ -475,7 +475,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
   <numFmts/>
   <fonts count="19">
     <font>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main">
   <dimension ref="A1:Z200"/>
   <sheetViews>
     <sheetView showGridLines="true" view="normal" zoomScale="100" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="100" workbookViewId="0"/>
@@ -2614,9 +2614,7 @@
         <v>78</v>
       </c>
       <c r="D38" s="40"/>
-      <c r="E38" s="40" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="E38" s="40"/>
       <c r="F38" s="41" t="s">
         <v>79</v>
       </c>
@@ -2652,9 +2650,7 @@
         <v>81</v>
       </c>
       <c r="D39" s="40"/>
-      <c r="E39" s="40" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="E39" s="40"/>
       <c r="F39" s="41" t="s">
         <v>82</v>
       </c>
@@ -2690,9 +2686,7 @@
         <v>84</v>
       </c>
       <c r="D40" s="40"/>
-      <c r="E40" s="40" t="n">
-        <v>-1.0</v>
-      </c>
+      <c r="E40" s="40"/>
       <c r="F40" s="43" t="s">
         <v>85</v>
       </c>

--- a/xlsx/sc_Config.xlsx
+++ b/xlsx/sc_Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283E7232-BBAF-4E6A-A3C7-73ABFCA3D60B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443E6637-BC2A-45AA-9564-161C8315D8EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-300" yWindow="855" windowWidth="28830" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="3510" windowWidth="28830" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -941,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -1184,7 +1184,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="11">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>

--- a/xlsx/sc_Config.xlsx
+++ b/xlsx/sc_Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E96D41-F588-41FE-AD86-CC29BE4D4EEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105C783C-6BE7-45D1-ACD3-ED9C2B477B6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="1950" windowWidth="28830" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5085" yWindow="2595" windowWidth="19095" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1097,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -1376,7 +1376,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="6">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -1412,7 +1412,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>

--- a/xlsx/sc_Config.xlsx
+++ b/xlsx/sc_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105C783C-6BE7-45D1-ACD3-ED9C2B477B6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E722EDE-C59C-4AF7-B507-B06E7DA8DF55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5085" yWindow="2595" windowWidth="19095" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1098,7 +1098,7 @@
   <dimension ref="A1:Z201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>

--- a/xlsx/sc_Config.xlsx
+++ b/xlsx/sc_Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E722EDE-C59C-4AF7-B507-B06E7DA8DF55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D822228B-85CD-4C23-B56B-E88FCF23DB38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5085" yWindow="2595" windowWidth="19095" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7530" yWindow="3180" windowWidth="19095" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1098,7 +1098,7 @@
   <dimension ref="A1:Z201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -1448,7 +1448,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="6">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
